--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2571.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2571.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9663721520198222</v>
+        <v>0.7577165961265564</v>
       </c>
       <c r="B1">
-        <v>1.504535429645682</v>
+        <v>0.7929579615592957</v>
       </c>
       <c r="C1">
-        <v>3.31820240901521</v>
+        <v>2.777397394180298</v>
       </c>
       <c r="D1">
-        <v>2.187451529297493</v>
+        <v>5.191154479980469</v>
       </c>
       <c r="E1">
-        <v>0.8039592786442656</v>
+        <v>1.188583970069885</v>
       </c>
     </row>
   </sheetData>
